--- a/examen-2b-freire-alex/documentos-finales/bodegafinalpython.xlsx
+++ b/examen-2b-freire-alex/documentos-finales/bodegafinalpython.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>nombre</t>
   </si>
@@ -171,92 +171,124 @@
     <t xml:space="preserve">MONTEVERDE.- KM. 27 RUTA DEL SPONDYLUS  VIA SAN PABLO COMUNA MONTEVERDE </t>
   </si>
   <si>
-    <t>Oscar A. BastidasJ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nestor A. GUERREROM. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco V. HinojosaG. </t>
-  </si>
-  <si>
-    <t>Richard S. Bueno G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego D. CalvacheJ. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Molina H. </t>
-  </si>
-  <si>
-    <t>Jorge V. Sanchez F</t>
-  </si>
-  <si>
-    <t>Jorge V. Riera F</t>
-  </si>
-  <si>
-    <t>Rafael E. Paz A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio R. Moreno B. </t>
-  </si>
-  <si>
-    <t>Renato Vega</t>
-  </si>
-  <si>
-    <t>Mary J. Molina P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narciso D. Seglia G. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro V. Mu zoS. </t>
-  </si>
-  <si>
-    <t>rodriguez@hotmail.ec</t>
-  </si>
-  <si>
-    <t>cevallos@hotmail.ec</t>
-  </si>
-  <si>
-    <t>arias@hotmail.ec</t>
-  </si>
-  <si>
-    <t>richard@hotmail.ec</t>
-  </si>
-  <si>
-    <t>diego@hotmail.ec</t>
-  </si>
-  <si>
-    <t>anibal@hotmail.ec</t>
-  </si>
-  <si>
-    <t>jorge@hotmail.ec</t>
-  </si>
-  <si>
-    <t>rafael.orrico@hotmail.ec</t>
-  </si>
-  <si>
-    <t>patricio.zuniga@hotmail.ec</t>
-  </si>
-  <si>
-    <t>renato@hotmail.ec</t>
-  </si>
-  <si>
-    <t>mary@hotmail.ec</t>
-  </si>
-  <si>
-    <t>narciso@hotmail.ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pedro.chavez@hotmail.ec</t>
+    <t>OSCAR A. BASTIDASJ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTOR A. GUERREROM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCO V. HINOJOSAG. </t>
+  </si>
+  <si>
+    <t>RICHARD S. BUENO G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO D. CALVACHEJ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICIO MOLINA H. </t>
+  </si>
+  <si>
+    <t>JORGE V. SANCHEZ F</t>
+  </si>
+  <si>
+    <t>JORGE V. RIERA F</t>
+  </si>
+  <si>
+    <t>RAFAEL E. PAZ A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIO R. MORENO B. </t>
+  </si>
+  <si>
+    <t>RENATO VEGA</t>
+  </si>
+  <si>
+    <t>MARY J. MOLINA P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARCISO D. SEGLIA G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO V. MU ZOS. </t>
+  </si>
+  <si>
+    <t>rodriguez@hotmail.com</t>
+  </si>
+  <si>
+    <t>cevallos@hotmail.com</t>
+  </si>
+  <si>
+    <t>arias@hotmail.com</t>
+  </si>
+  <si>
+    <t>richard@hotmail.com</t>
+  </si>
+  <si>
+    <t>diego@hotmail.com</t>
+  </si>
+  <si>
+    <t>anibal@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge@hotmail.com</t>
+  </si>
+  <si>
+    <t>rafael.orrico@hotmail.com</t>
+  </si>
+  <si>
+    <t>patricio.zuniga@hotmail.com</t>
+  </si>
+  <si>
+    <t>renato@hotmail.com</t>
+  </si>
+  <si>
+    <t>mary@hotmail.com</t>
+  </si>
+  <si>
+    <t>narciso@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pedro.chavez@hotmail.com</t>
   </si>
   <si>
     <t>60199/60200/60201</t>
   </si>
   <si>
-    <t>43020
-43034</t>
+    <t>61051</t>
+  </si>
+  <si>
+    <t>62007</t>
+  </si>
+  <si>
+    <t>62340</t>
+  </si>
+  <si>
+    <t>21712</t>
+  </si>
+  <si>
+    <t>20160</t>
+  </si>
+  <si>
+    <t>20680</t>
+  </si>
+  <si>
+    <t>33180</t>
+  </si>
+  <si>
+    <t>82022</t>
+  </si>
+  <si>
+    <t>85420</t>
+  </si>
+  <si>
+    <t>41360</t>
+  </si>
+  <si>
+    <t>42014</t>
+  </si>
+  <si>
+    <t>43020/43034</t>
   </si>
   <si>
     <t>0958741317</t>
@@ -724,8 +756,8 @@
       <c r="H3">
         <v>3942000</v>
       </c>
-      <c r="I3">
-        <v>61051</v>
+      <c r="I3" t="s">
+        <v>79</v>
       </c>
       <c r="K3">
         <v>0.08507969999999999</v>
@@ -756,8 +788,8 @@
       <c r="H4">
         <v>3942000</v>
       </c>
-      <c r="I4">
-        <v>62007</v>
+      <c r="I4" t="s">
+        <v>80</v>
       </c>
       <c r="K4">
         <v>-0.1108267</v>
@@ -788,8 +820,8 @@
       <c r="H5">
         <v>3941400</v>
       </c>
-      <c r="I5">
-        <v>62340</v>
+      <c r="I5" t="s">
+        <v>81</v>
       </c>
       <c r="K5">
         <v>-0.7769443</v>
@@ -820,8 +852,8 @@
       <c r="H6">
         <v>22677427</v>
       </c>
-      <c r="I6">
-        <v>21712</v>
+      <c r="I6" t="s">
+        <v>82</v>
       </c>
       <c r="K6">
         <v>-1.3397668</v>
@@ -852,11 +884,11 @@
       <c r="H7">
         <v>3942000</v>
       </c>
-      <c r="I7">
-        <v>20160</v>
+      <c r="I7" t="s">
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>-1.3397668</v>
@@ -887,11 +919,11 @@
       <c r="H8">
         <v>3942000</v>
       </c>
-      <c r="I8">
-        <v>20680</v>
+      <c r="I8" t="s">
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K8">
         <v>-0.3185137</v>
@@ -922,8 +954,8 @@
       <c r="H9">
         <v>3942000</v>
       </c>
-      <c r="I9">
-        <v>20680</v>
+      <c r="I9" t="s">
+        <v>84</v>
       </c>
       <c r="K9">
         <v>-0.3185137</v>
@@ -951,11 +983,11 @@
       <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="I10">
-        <v>33180</v>
+      <c r="I10" t="s">
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>13.2342002</v>
@@ -986,11 +1018,11 @@
       <c r="H11">
         <v>3942000</v>
       </c>
-      <c r="I11">
-        <v>82022</v>
+      <c r="I11" t="s">
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K11">
         <v>0.8119288</v>
@@ -1021,8 +1053,8 @@
       <c r="H12">
         <v>3942000</v>
       </c>
-      <c r="I12">
-        <v>85420</v>
+      <c r="I12" t="s">
+        <v>87</v>
       </c>
       <c r="K12">
         <v>37.5420937</v>
@@ -1053,11 +1085,11 @@
       <c r="H13">
         <v>3942000</v>
       </c>
-      <c r="I13">
-        <v>41360</v>
+      <c r="I13" t="s">
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K13">
         <v>-1.093085</v>
@@ -1088,8 +1120,8 @@
       <c r="H14">
         <v>3942000</v>
       </c>
-      <c r="I14">
-        <v>42014</v>
+      <c r="I14" t="s">
+        <v>89</v>
       </c>
       <c r="K14">
         <v>13.74481645</v>
@@ -1121,7 +1153,7 @@
         <v>3942000</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>40.998922</v>
